--- a/biology/Botanique/Arbre_à_gomme/Arbre_à_gomme.xlsx
+++ b/biology/Botanique/Arbre_à_gomme/Arbre_à_gomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_gomme</t>
+          <t>Arbre_à_gomme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'expression arbre à gomme appartient au vocabulaire courant et désigne plusieurs espèces d'arbres producteurs de gomme naturelle ou de latex. Ce nom ne correspond pas à un niveau précis de classification scientifique des espèces, c'est-à-dire qu'il s'agit d'un nom vernaculaire dont le sens est ambigu en botanique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_gomme</t>
+          <t>Arbre_à_gomme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Espèces nommées « arbre à gomme »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ficus elastica, l'Arbre à gomme ou Caoutchouc[1],[2] ;
-Vachellia seyal, l'Arbre à gomme ou Seyal[3] ;
-Eucommia ulmoides, l'Arbre à gutta-percha ou Arbre à gomme[4] ;
-en général les gommiers[5] (nom également ambigu) : dont les gommiers blancs (nom également ambigu) et Vachellia nilotica, le Gommier rouge ou Acacia à gomme[6] ;
-plus généralement les arbres produisant de la gomme[7] : Abricotiers, Acacias (en particulier[8] Acacia arabica, Acacia seyal, Acacia senegal, Acacia tortilis), Cerisiers, Pruniers, Cannelier blanc, etc. ;
-les anglais appellent aussi l'Eucalyptus « gum tree », littéralement « arbre à gomme »[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ficus elastica, l'Arbre à gomme ou Caoutchouc, ;
+Vachellia seyal, l'Arbre à gomme ou Seyal ;
+Eucommia ulmoides, l'Arbre à gutta-percha ou Arbre à gomme ;
+en général les gommiers (nom également ambigu) : dont les gommiers blancs (nom également ambigu) et Vachellia nilotica, le Gommier rouge ou Acacia à gomme ;
+plus généralement les arbres produisant de la gomme : Abricotiers, Acacias (en particulier Acacia arabica, Acacia seyal, Acacia senegal, Acacia tortilis), Cerisiers, Pruniers, Cannelier blanc, etc. ;
+les anglais appellent aussi l'Eucalyptus « gum tree », littéralement « arbre à gomme ».</t>
         </is>
       </c>
     </row>
